--- a/RTBF-enforcements/RTBF-tagging.xlsx
+++ b/RTBF-enforcements/RTBF-tagging.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B66B96-1FD9-AA4D-A990-F907D14F20A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4270D37-A10E-6A4F-8F4A-D80D1780D26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
     <sheet name="year 6 summary" sheetId="3" r:id="rId2"/>
+    <sheet name="year 6 matching" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="410">
   <si>
     <t>Country</t>
   </si>
@@ -1803,12 +1804,237 @@
     <t xml:space="preserve">Did not propagate deletion to all apps
 </t>
   </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>docID</t>
+  </si>
+  <si>
+    <t>Analysis of violations</t>
+  </si>
+  <si>
+    <t>Strong Match Category</t>
+  </si>
+  <si>
+    <t>Weak Match Category</t>
+  </si>
+  <si>
+    <t>UI
+Did not respond within 30 days
+Policy
+Disregarded the interplay with non-GDPR law</t>
+  </si>
+  <si>
+    <t>Late-Response</t>
+  </si>
+  <si>
+    <t>EXMPT-OTH</t>
+  </si>
+  <si>
+    <t>No_API</t>
+  </si>
+  <si>
+    <t>Application software
+application does not enable deletion well</t>
+  </si>
+  <si>
+    <t>Application software
+application does not enable deletion well
+UI
+Issued a false response</t>
+  </si>
+  <si>
+    <t>OMIT</t>
+  </si>
+  <si>
+    <t>UI
+Never acknowledged  the request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-response </t>
+  </si>
+  <si>
+    <t>UI
+Made it cumbersome to request delete
+same as "Hard to request RTBF"</t>
+  </si>
+  <si>
+    <t>UI-Trouble</t>
+  </si>
+  <si>
+    <t>UI
+Did not respond within 30 days</t>
+  </si>
+  <si>
+    <t>UI
+Never acknowledged the request
+Software application
+application does not enable deletion well</t>
+  </si>
+  <si>
+    <t>No-response 
+No_API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI
+Never acknowledged the request
+Pass the responsibility to another controller
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deflect
+No-response </t>
+  </si>
+  <si>
+    <t>UI
+Never acknowledged the request
+Policy
+Misinterpreted exceptions allowed by GDPR</t>
+  </si>
+  <si>
+    <t>No-response 
+EXMPT-GDPR</t>
+  </si>
+  <si>
+    <t>UI
+Never acknowledged 
+the request
+Policy
+Misinterpreted exceptions allowed by GDPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXMPT-GDPR
+No-response </t>
+  </si>
+  <si>
+    <t>UI
+Never acknowledged 
+the request</t>
+  </si>
+  <si>
+    <t>Software application
+application does not enable deletion well</t>
+  </si>
+  <si>
+    <t>Propagate</t>
+  </si>
+  <si>
+    <t>UI
+hard to request RTBF
+Policy
+Disregarded the interplay with non-GDPR laws</t>
+  </si>
+  <si>
+    <t>No-response</t>
+  </si>
+  <si>
+    <t>policy
+Misinterpreted exceptions allowed by GDPR</t>
+  </si>
+  <si>
+    <t>EXMPT-GDPR</t>
+  </si>
+  <si>
+    <t>policy
+Misinterpreted exceptions allowed by GDPR
+policy
+Disregarded the interplay with non-GDPR laws</t>
+  </si>
+  <si>
+    <t>EXMPT-ALL</t>
+  </si>
+  <si>
+    <t>policy
+Misinterpreted exceptions allowed by GDPR
+policy: 
+pass the responsibility to another controller</t>
+  </si>
+  <si>
+    <t>EXMPT-GDPR
+Deflect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy
+Misinterpreted exceptions allowed by GDPR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EXMPT-GDPR</t>
+  </si>
+  <si>
+    <t>UI
+Made it cumbersome to request delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy
+Misinterpreted exceptions allowed by GDPR
+</t>
+  </si>
+  <si>
+    <t>UI
+Issued a false response</t>
+  </si>
+  <si>
+    <t>UI
+Issued a false response
+Application Software
+Application does not enable deletion well</t>
+  </si>
+  <si>
+    <t>OMIT
+No_API</t>
+  </si>
+  <si>
+    <t>Policy
+Misinterpreted exceptions allowed by GDPR
+Disregarded the interplay with non-GDPR laws:</t>
+  </si>
+  <si>
+    <t>Policy
+Misinterpreted exceptions allowed by GDPR
+Disregarded the interplay with non-GDPR laws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI
+never ack
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI
+Never acknowledged 
+the request
+</t>
+  </si>
+  <si>
+    <t>Did not respond within 30 days
+Misinterpreted exceptions allowed by GDPR</t>
+  </si>
+  <si>
+    <t>Late-Response
+EXMPT-GDPR</t>
+  </si>
+  <si>
+    <t>application software
+deactivated a/c instead of deleting data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Application software
+Did not propagate deletion to all apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application software
+application does not enable deletion well
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1901,6 +2127,19 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2020,7 +2259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2142,11 +2381,121 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="44">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2158,16 +2507,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2195,17 +2536,104 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="2">
+  <tableStyles count="5">
     <tableStyle name="StrongWeak Match Per Case-style" pivot="0" count="3" xr9:uid="{EEEE91C1-8B1A-2847-A048-5440D9EA40B2}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+    </tableStyle>
+    <tableStyle name="StrongWeak Match Per Case-style 2" pivot="0" count="3" xr9:uid="{5E9C76BE-FDCC-FA45-A9F6-2202832DE87B}">
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+    </tableStyle>
+    <tableStyle name="StrongWeak Match Per Case-style 3" pivot="0" count="3" xr9:uid="{A2BDF266-FA4C-A34D-9AD4-6E826F5D6CEC}">
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+    </tableStyle>
+    <tableStyle name="StrongWeak Match Per Case-style 4" pivot="0" count="3" xr9:uid="{99F40475-EBC5-7E45-8E5F-CB22FF82F97B}">
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
     <tableStyle name="Year 6 summary-style" pivot="0" count="3" xr9:uid="{B877E8E5-89C5-684F-B5A2-D34305686BA3}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2319,6 +2747,40 @@
     <tableColumn id="27" xr3:uid="{E177F113-0681-3B43-8520-3A0B7D3CEB9D}" name="Column27"/>
   </tableColumns>
   <tableStyleInfo name="Year 6 summary-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7B7D9EEE-0757-E040-A490-3E7A1CBB163E}" name="Table_3" displayName="Table_3" ref="A1:Z999" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{E2DE44D0-42A5-274A-A989-C360238BE019}" name="Column1" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{15840F1D-DFCB-4244-B804-212F2E3291C2}" name="Column2" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{99E8031A-BD9B-9D4B-9E3B-C8DF35C6B7B7}" name="Column3" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{221A83FB-F603-BE49-BE0E-4DD32900B5B1}" name="Column4" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{A8FC4144-0420-4B4F-ACA2-9C2F640859C2}" name="Column5" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{D4C6BDF0-462B-1F45-B348-4561B87DBEF7}" name="Column6" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{B1E456FF-4824-CF4C-AE49-6269706608F8}" name="Column7" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{5325D2CE-F4CF-3F42-8D09-37813560DF07}" name="Column8" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{036FF795-E489-2748-A28A-66A71587014E}" name="Column9" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{4AC3343C-335F-B343-8A72-C0E77DD173AF}" name="Column10" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{D3504101-AC4D-DC41-A799-7A066836BE8F}" name="Column11" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{FF915FCF-C258-9643-9182-918529C2105F}" name="Column12" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{582ADE88-8CA1-4C49-A1CA-C76C28E2B73A}" name="Column13" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{4BF87347-9F3B-6F4B-A58E-164D949BC245}" name="Column14" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{95E336FC-48C8-6441-8060-617F2D1951A6}" name="Column15" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{02169A4C-0F04-3147-B0B0-6E25A63E0CBC}" name="Column16" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{9E4D12BB-65A9-F846-AD24-43030DFB6A1E}" name="Column17" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{730CA2AB-5B56-6544-9936-EF7A716E31E8}" name="Column18" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{399ACF07-95FF-1942-A0E5-9A6622F74E04}" name="Column19" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{19A7936C-F41D-1041-9B9D-10AACCECB9A7}" name="Column20" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{26BDE543-2C5D-7E47-9D7D-C9C1114DD7DF}" name="Column21" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{E48BBD3D-4D6D-FA45-BA99-312B7E67D46C}" name="Column22" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{60B30F8E-623D-274B-8BA1-37B967846F9E}" name="Column23" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{958C3735-F723-4C45-904D-A3730DCEC0A6}" name="Column24" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{7DF04276-3662-8947-AAC9-A1AE20B9ABA5}" name="Column25" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{66365295-BFED-AA43-A9AC-8EC66485868E}" name="Column26" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3372,7 +3834,7 @@
   </sheetPr>
   <dimension ref="A1:AB1087"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A191" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
@@ -36976,8 +37438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF6E3B5-0E83-2742-81FF-1BF11F0696F4}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -66217,4 +66679,621 @@
     <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313E914D-1B94-F44E-8013-A492F699197E}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="45" style="45" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="44" customFormat="1" ht="14">
+      <c r="A1" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="70">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="70">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="70">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="70">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="70">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="84">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="70">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="70">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28">
+      <c r="A23" s="45">
+        <v>22</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="70">
+      <c r="A24" s="45">
+        <v>23</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="56">
+      <c r="A25" s="45">
+        <v>24</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28">
+      <c r="A26" s="45">
+        <v>25</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="42">
+      <c r="A27" s="45">
+        <v>26</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28">
+      <c r="A28" s="45">
+        <v>27</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="70">
+      <c r="A29" s="45">
+        <v>28</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="70">
+      <c r="A30" s="45">
+        <v>29</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28">
+      <c r="A31" s="45">
+        <v>30</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="56">
+      <c r="A32" s="45">
+        <v>31</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="56">
+      <c r="A33" s="45">
+        <v>32</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42">
+      <c r="A34" s="45">
+        <v>33</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="70">
+      <c r="A35" s="45">
+        <v>34</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="42">
+      <c r="A36" s="45">
+        <v>35</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28">
+      <c r="A37" s="45">
+        <v>36</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="42">
+      <c r="A38" s="45">
+        <v>37</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28">
+      <c r="A39" s="45">
+        <v>38</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28">
+      <c r="A40" s="45">
+        <v>39</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28">
+      <c r="A41" s="45">
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{65409DD4-D076-5040-AE4B-32394F85292E}"/>
+    <hyperlink ref="B36" r:id="rId2" xr:uid="{8FEF2666-2DF0-434D-A057-A9AD2EF2A99F}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{2C2E813F-94F1-DF4B-9311-67B9DB8AE313}"/>
+    <hyperlink ref="B39" r:id="rId4" xr:uid="{3E6D5F71-7E95-2A48-A522-384E31811F83}"/>
+    <hyperlink ref="B40" r:id="rId5" xr:uid="{36813739-3A45-0E49-944C-238245666582}"/>
+    <hyperlink ref="B41" r:id="rId6" xr:uid="{2988C41D-1A0F-A248-8B7A-C372A342AFE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
 </file>